--- a/strategy/2024-04-04.xlsx
+++ b/strategy/2024-04-04.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -765,7 +765,7 @@
         <v>45386.5416550926</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -792,7 +792,7 @@
         <v>45386.5833217593</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -819,7 +819,7 @@
         <v>45386.6249884259</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>51</v>
+        <v>54.5</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -846,7 +846,7 @@
         <v>45386.6666550926</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -873,7 +873,7 @@
         <v>45386.7083217593</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>54.2</v>
+        <v>58</v>
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -1012,7 +1012,7 @@
         <v>45386.9166550926</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>54.2</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">$H$3</f>
@@ -1039,7 +1039,7 @@
         <v>45386.9583217593</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>54.2</v>
+        <v>55.2</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">$H$3</f>
